--- a/backend/php/excel/plantillas/ficha_instalacion.xlsx
+++ b/backend/php/excel/plantillas/ficha_instalacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HelpDesk_MPP2.0\backend\php\excel\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisti\backend\php\excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E30EAA3-3C57-46E5-A651-D295426BF047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591DC6E-42AA-4432-AF90-E0EC5D58975B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{424BB684-937D-49A7-8A4A-94D4ABA78A75}"/>
   </bookViews>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,38 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -275,7 +243,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="8"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -283,8 +251,47 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FF0070C0"/>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -431,43 +438,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -501,99 +471,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,700 +1169,1209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435EAE3A-767C-453B-AC1A-898D5BE4F3F2}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="2"/>
-    <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="2" customWidth="1"/>
-    <col min="13" max="22" width="11.42578125" style="2"/>
-    <col min="23" max="23" width="11.42578125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="22" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="L7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="I8" s="11" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="L9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="L10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="L11" s="10"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="L13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="D16" s="16" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="D18" s="2" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="D19" s="2" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="L20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="L21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="L23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="L24" s="10"/>
-      <c r="N24" s="17"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="14"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="L25" s="10"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="L30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="L32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="21" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="L33" s="10"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="L34" s="10"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="26" t="s">
+      <c r="H35" s="41"/>
+      <c r="I35" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="41"/>
+      <c r="D36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="26" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="26" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="41"/>
+      <c r="D38" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="26" t="s">
+      <c r="H38" s="41"/>
+      <c r="I38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="26" t="s">
+      <c r="H39" s="41"/>
+      <c r="I39" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26" t="s">
+      <c r="C40" s="41"/>
+      <c r="D40" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="26" t="s">
+      <c r="H40" s="41"/>
+      <c r="I40" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="26" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="26" t="s">
+      <c r="H41" s="41"/>
+      <c r="I41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="26" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="26" t="s">
+      <c r="H42" s="41"/>
+      <c r="I42" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="39"/>
-      <c r="L43" s="10"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="G44" s="21" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="L45" s="10"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="26" t="s">
+      <c r="H46" s="41"/>
+      <c r="I46" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="14"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="26" t="s">
+      <c r="C47" s="41"/>
+      <c r="D47" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="26" t="s">
+      <c r="H47" s="41"/>
+      <c r="I47" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="14"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="26" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="26" t="s">
+      <c r="H48" s="41"/>
+      <c r="I48" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="26" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="26" t="s">
+      <c r="H49" s="41"/>
+      <c r="I49" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="14"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="26" t="s">
+      <c r="C50" s="41"/>
+      <c r="D50" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="26" t="s">
+      <c r="H50" s="41"/>
+      <c r="I50" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="14"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="41"/>
+      <c r="D51" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="26" t="s">
+      <c r="H51" s="41"/>
+      <c r="I51" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="14"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="26" t="s">
+      <c r="C52" s="41"/>
+      <c r="D52" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="10"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="C53" s="41"/>
-      <c r="L53" s="10"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="L54" s="10"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="14"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="L55" s="10"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="14"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="10"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="10"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="L58" s="10"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="L59" s="10"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="L60" s="10"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="L61" s="10"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="14"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="20"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="32"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="34" t="s">
         <v>49</v>
       </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H69" s="28"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="33" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="33" t="s">
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/backend/php/excel/plantillas/ficha_instalacion.xlsx
+++ b/backend/php/excel/plantillas/ficha_instalacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisti\backend\php\excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591DC6E-42AA-4432-AF90-E0EC5D58975B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04C2CC8-AC6F-498F-BD22-B11470C7FC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{424BB684-937D-49A7-8A4A-94D4ABA78A75}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -486,11 +486,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,9 +513,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,23 +528,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -543,15 +540,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -570,15 +558,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1188,7 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:H51"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,1163 +1224,1163 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="18" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="14"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="7" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="25" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="14"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="14"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="14"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="14"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="14"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="14"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="13"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="14"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="33" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="14"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="35" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="35" t="s">
+      <c r="H35" s="31"/>
+      <c r="I35" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="14"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="35" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="35" t="s">
+      <c r="H36" s="31"/>
+      <c r="I36" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="14"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="35" t="s">
+      <c r="H37" s="31"/>
+      <c r="I37" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="14"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="35" t="s">
+      <c r="C38" s="31"/>
+      <c r="D38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="35" t="s">
+      <c r="H38" s="31"/>
+      <c r="I38" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="14"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="31"/>
+      <c r="D39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="35" t="s">
+      <c r="H39" s="31"/>
+      <c r="I39" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="14"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="35" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="35" t="s">
+      <c r="H40" s="31"/>
+      <c r="I40" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="14"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="35" t="s">
+      <c r="C41" s="31"/>
+      <c r="D41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="35" t="s">
+      <c r="H41" s="31"/>
+      <c r="I41" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="14"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="35" t="s">
+      <c r="C42" s="31"/>
+      <c r="D42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="35" t="s">
+      <c r="H42" s="31"/>
+      <c r="I42" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="14"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="33" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="14"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="35" t="s">
+      <c r="C46" s="31"/>
+      <c r="D46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="35" t="s">
+      <c r="H46" s="31"/>
+      <c r="I46" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="14"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="35" t="s">
+      <c r="C47" s="31"/>
+      <c r="D47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="35" t="s">
+      <c r="H47" s="31"/>
+      <c r="I47" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="14"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="35" t="s">
+      <c r="C48" s="31"/>
+      <c r="D48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="35" t="s">
+      <c r="H48" s="31"/>
+      <c r="I48" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="14"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="13"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="35" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="35" t="s">
+      <c r="H49" s="31"/>
+      <c r="I49" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="14"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="35" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="35" t="s">
+      <c r="H50" s="31"/>
+      <c r="I50" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="14"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="35" t="s">
+      <c r="C51" s="31"/>
+      <c r="D51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="35" t="s">
+      <c r="H51" s="31"/>
+      <c r="I51" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="14"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="35" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="14"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="13"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="14"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="14"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="14"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="14"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="14"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="14"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="14"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="14"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="13"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="14"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="32"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="39" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="39" t="s">
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2374,7 +2392,7 @@
       <c r="A75" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A70:C70"/>
@@ -2383,6 +2401,7 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="E70:G70"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.22" top="0.36" bottom="0.19" header="0.16" footer="0.16"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>

--- a/backend/php/excel/plantillas/ficha_instalacion.xlsx
+++ b/backend/php/excel/plantillas/ficha_instalacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisti\backend\php\excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04C2CC8-AC6F-498F-BD22-B11470C7FC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C29BE9-7946-4D44-A090-F165D4770B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{424BB684-937D-49A7-8A4A-94D4ABA78A75}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -486,21 +486,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -595,8 +580,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1173,7 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/backend/php/excel/plantillas/ficha_instalacion.xlsx
+++ b/backend/php/excel/plantillas/ficha_instalacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisti\backend\php\excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C29BE9-7946-4D44-A090-F165D4770B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B6084-342B-432D-82B5-6622D7E2ADA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{424BB684-937D-49A7-8A4A-94D4ABA78A75}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>INFORMACIÓN GENERAL</t>
   </si>
@@ -212,13 +212,16 @@
   </si>
   <si>
     <t>CONSTANCIA DE INSTALACIÓN DE EQUIPO COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>HORA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +299,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -311,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -486,11 +497,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -580,7 +606,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,8 +1263,8 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1328,7 +1357,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1337,9 +1366,11 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2377,7 +2408,7 @@
       <c r="A75" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A70:C70"/>
@@ -2387,6 +2418,7 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.22" top="0.36" bottom="0.19" header="0.16" footer="0.16"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
